--- a/biology/Zoologie/Chthonius_paludis/Chthonius_paludis.xlsx
+++ b/biology/Zoologie/Chthonius_paludis/Chthonius_paludis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chthonius paludis est une espèce de pseudoscorpions de la famille des Chthoniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis[1]. Elle se rencontre en Géorgie, en Caroline du Nord, au Tennessee et au Mississippi.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Géorgie, en Caroline du Nord, au Tennessee et au Mississippi.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chamberlin, 1929 : A synoptic classification of the false scorpions or chela-spinners, with a report on a cosmopolitan collection of the same. Part 1. The Heterosphyronida (Chthoniidae) (Arachnida-Chelonethida). Annals and Magazine of Natural History, sér. 10, vol. 4, p. 50-80.</t>
         </is>
